--- a/data/trans_bre/P16A08-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A08-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A08-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A08-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,06</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-31,7%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,29%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-67,85%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-3,15; 1,51</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-2,48; 4,28</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-9,01; -1,14</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-85,77; 216,45</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,7; 178,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,69; -18,63</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,09</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>184,21%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>144,27%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,56%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,37; 6,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,86; 4,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,51; 6,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,76; 3,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,22; 522,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,51; 87,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,94; 405,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,03; 108,66</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,03</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>226,03%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>238,38%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,93%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,03; 4,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,97; 8,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,6; 2,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,63; 1,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,96; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,74; 809,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,92; 174,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,03; 118,9</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,92%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>90,3%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,89%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>241,92%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,61; 3,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,61; 4,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,1; 5,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,11; 16,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,89; 271,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,02; 265,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,47; 219,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,45; 3083,55</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,17</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,38</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>155,56%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>127,32%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>119,79%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,18%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,96; 10,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,8; 10,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 6,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,82; 3,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,43; 570,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,5; 370,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,26; 721,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,19; 175,82</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>98,3%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,36%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,76%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,48%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 4,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,92; 5,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,14; 5,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,0; 4,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,11; 839,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,53; 284,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,73; 220,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,0; 351,51</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,6%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>162,7%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>155,43%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>133,87%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,35; 2,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,83; 4,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,25; 5,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,0; 6,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,35; 319,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,34; 515,58</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,12; 424,7</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,73; 332,05</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,28%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,07%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>89,67%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,2; 2,02</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,67; 2,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,03; 3,82</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,03; 5,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,49; 75,09</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,5; 87,41</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,91; 166,85</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,24; 237,42</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,94%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,46%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,98%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,42%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,74; 2,48</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,09; 3,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,37; 3,26</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,6; 3,22</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,93; 123,2</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,76; 103,26</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,82; 122,83</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,52; 104,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A08-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A08-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,06</t>
+          <t>-4,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,51%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-67,85%</t>
+          <t>-70,39%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,52; 7,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,01; -1,14</t>
+          <t>-10,11; -1,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,56; 351,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-87,69; -18,63</t>
+          <t>-89,56; -25,85</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,56%</t>
+          <t>12,64%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 3,14</t>
+          <t>-2,83; 3,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-39,03; 108,66</t>
+          <t>-39,9; 105,96</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-20,93%</t>
+          <t>-22,97%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 1,41</t>
+          <t>-3,83; 1,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-71,03; 118,9</t>
+          <t>-71,9; 113,9</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,36</t>
+          <t>15,06</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>90,3%</t>
+          <t>107,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>241,92%</t>
+          <t>827,96%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,61; 4,85</t>
+          <t>-0,22; 4,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,11; 16,07</t>
+          <t>-0,02; 47,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,02; 265,93</t>
+          <t>-20,33; 477,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-39,45; 3083,55</t>
+          <t>-18,65; 58461,21</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>11,34%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 3,23</t>
+          <t>-3,59; 3,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-62,19; 175,82</t>
+          <t>-59,81; 178,02</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>46,48%</t>
+          <t>45,35%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 4,08</t>
+          <t>-2,0; 4,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-53,0; 351,51</t>
+          <t>-54,14; 353,26</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>133,87%</t>
+          <t>107,19%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,0; 6,11</t>
+          <t>-0,38; 5,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>28,73; 332,05</t>
+          <t>-4,82; 290,11</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>89,67%</t>
+          <t>142,51%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,03; 5,0</t>
+          <t>1,79; 6,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>21,24; 237,42</t>
+          <t>47,03; 628,43</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>50,42%</t>
+          <t>92,73%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,22</t>
+          <t>0,81; 11,02</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>14,52; 104,88</t>
+          <t>22,63; 371,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A08-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A08-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 1,51</t>
+          <t>-3,29; 1,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 7,46</t>
+          <t>-0,54; 7,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 4,28</t>
+          <t>-2,56; 4,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,11; -1,15</t>
+          <t>-10,84; -1,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-85,77; 216,45</t>
+          <t>-88,83; 172,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,56; 351,74</t>
+          <t>-16,07; 315,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-50,7; 178,88</t>
+          <t>-48,36; 210,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-89,56; -25,85</t>
+          <t>-90,04; -31,25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,37; 6,63</t>
+          <t>1,52; 6,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 4,13</t>
+          <t>-3,15; 3,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,51; 6,95</t>
+          <t>1,1; 6,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 3,16</t>
+          <t>-2,43; 3,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>27,22; 522,01</t>
+          <t>37,01; 506,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-33,51; 87,29</t>
+          <t>-37,78; 85,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,94; 405,28</t>
+          <t>16,21; 387,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-39,9; 105,96</t>
+          <t>-36,66; 120,62</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,03; 4,03</t>
+          <t>-0,34; 3,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,97; 8,45</t>
+          <t>2,03; 8,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 2,6</t>
+          <t>-2,53; 2,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 1,36</t>
+          <t>-3,79; 1,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-46,96; —</t>
+          <t>-74,55; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>32,74; 809,67</t>
+          <t>44,5; 787,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-57,92; 174,66</t>
+          <t>-63,84; 165,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-71,9; 113,9</t>
+          <t>-72,55; 129,37</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 3,42</t>
+          <t>-1,54; 3,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 4,71</t>
+          <t>-0,34; 4,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 5,98</t>
+          <t>-1,11; 5,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 47,11</t>
+          <t>0,14; 48,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-47,89; 271,42</t>
+          <t>-42,31; 314,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-20,33; 477,01</t>
+          <t>-16,32; 537,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-24,47; 219,39</t>
+          <t>-26,69; 221,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-18,65; 58461,21</t>
+          <t>-12,53; —</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,96; 10,13</t>
+          <t>0,79; 9,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,8; 10,07</t>
+          <t>0,99; 10,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 6,13</t>
+          <t>-0,49; 5,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 3,15</t>
+          <t>-3,06; 3,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,43; 570,88</t>
+          <t>2,41; 627,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,5; 370,47</t>
+          <t>9,12; 456,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-29,26; 721,5</t>
+          <t>-28,75; 609,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-59,81; 178,02</t>
+          <t>-57,76; 173,27</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 4,71</t>
+          <t>-0,88; 4,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 5,35</t>
+          <t>-2,41; 4,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 5,13</t>
+          <t>-1,98; 5,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 4,15</t>
+          <t>-1,65; 4,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-55,11; 839,74</t>
+          <t>-37,12; 766,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-37,53; 284,37</t>
+          <t>-52,06; 206,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-46,73; 220,08</t>
+          <t>-41,81; 266,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-54,14; 353,26</t>
+          <t>-50,6; 310,81</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 2,94</t>
+          <t>-0,14; 3,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,83; 4,63</t>
+          <t>0,84; 4,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,25; 5,71</t>
+          <t>1,38; 5,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 5,74</t>
+          <t>-1,01; 5,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-24,35; 319,49</t>
+          <t>-15,05; 383,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,34; 515,58</t>
+          <t>32,97; 562,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>27,12; 424,7</t>
+          <t>38,64; 446,32</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 290,11</t>
+          <t>-18,71; 266,33</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 2,02</t>
+          <t>-2,0; 1,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 2,51</t>
+          <t>-1,57; 2,36</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 3,82</t>
+          <t>-0,02; 3,96</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,79; 6,09</t>
+          <t>1,63; 5,96</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-44,49; 75,09</t>
+          <t>-43,02; 73,15</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-34,5; 87,41</t>
+          <t>-33,49; 89,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 166,85</t>
+          <t>-2,79; 172,63</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>47,03; 628,43</t>
+          <t>42,37; 450,4</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,48</t>
+          <t>0,64; 2,4</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,09</t>
+          <t>0,98; 3,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,37; 3,26</t>
+          <t>1,33; 3,35</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,81; 11,02</t>
+          <t>0,78; 9,9</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>25,93; 123,2</t>
+          <t>21,03; 121,72</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>27,76; 103,26</t>
+          <t>23,38; 101,25</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>38,82; 122,83</t>
+          <t>36,06; 126,06</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>22,63; 371,49</t>
+          <t>21,15; 336,51</t>
         </is>
       </c>
     </row>
